--- a/common/EnergyIntro.xlsx
+++ b/common/EnergyIntro.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="199">
   <si>
     <t>星星序号</t>
   </si>
@@ -23,39 +23,69 @@
     <t>说明（不显示在界面）</t>
   </si>
   <si>
+    <t>坐标</t>
+  </si>
+  <si>
     <t>energy_id</t>
   </si>
   <si>
     <t>introduction</t>
   </si>
   <si>
+    <t>x,y</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>array</t>
+  </si>
+  <si>
     <t>聪慧属性的1等星《聪慧101》</t>
   </si>
   <si>
+    <t>388.4,918.5</t>
+  </si>
+  <si>
     <t>聪慧属性的1等星《聪慧102》</t>
   </si>
   <si>
+    <t>543.2,1141.7</t>
+  </si>
+  <si>
     <t>聪慧属性的1等星《聪慧103》</t>
   </si>
   <si>
+    <t>111.6,563.2</t>
+  </si>
+  <si>
     <t>聪慧属性的1等星《聪慧104》</t>
   </si>
   <si>
+    <t>580.4,686.6</t>
+  </si>
+  <si>
     <t>聪慧属性的1等星《聪慧105》</t>
   </si>
   <si>
+    <t>389.9,581.0</t>
+  </si>
+  <si>
     <t>聪慧属性的2等星《聪慧201》</t>
   </si>
   <si>
+    <t>631.0,881.4</t>
+  </si>
+  <si>
     <t>聪慧属性的2等星《聪慧202》</t>
   </si>
   <si>
+    <t>181.5,762.4</t>
+  </si>
+  <si>
     <t>聪慧属性的2等星《聪慧203》</t>
   </si>
   <si>
@@ -71,9 +101,15 @@
     <t>聪慧属性的3等星《聪慧302》</t>
   </si>
   <si>
+    <t>230.7,1216.0</t>
+  </si>
+  <si>
     <t>聪慧属性的3等星《聪慧303》</t>
   </si>
   <si>
+    <t>142.9,1022.7</t>
+  </si>
+  <si>
     <t>聪慧属性的3等星《聪慧304》</t>
   </si>
   <si>
@@ -150,6 +186,9 @@
   </si>
   <si>
     <t>聪慧属性的8等星《聪慧804》</t>
+  </si>
+  <si>
+    <t>389.9,581,0</t>
   </si>
   <si>
     <t>聪慧属性的8等星《聪慧805》</t>
@@ -580,9 +619,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -602,7 +641,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,14 +687,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +695,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,80 +738,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -744,8 +760,31 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,7 +805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,13 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,43 +871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,13 +901,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,13 +955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,67 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,6 +1021,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -999,6 +1058,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,35 +1086,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1062,21 +1101,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1085,6 +1109,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1093,10 +1126,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1105,139 +1138,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,6 +1616,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="card_15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6029325" y="257175"/>
+          <a:ext cx="5654675" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1841,1615 +1915,2166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="63.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.75" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>1101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>1102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>1103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>1105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>1201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>1202</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>1203</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>1204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>1205</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>1302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>1303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>1304</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>1305</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>1401</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>1402</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>1403</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>35</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>1404</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>1405</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>1501</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>1502</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>1503</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>40</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>1504</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>1505</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>1601</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>43</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>1602</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>1603</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>1604</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>1605</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>1701</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>1702</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>49</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>1703</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>1704</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>1705</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>52</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>1801</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>1802</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>1803</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>1804</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>1805</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>1901</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>1902</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>1903</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>1904</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>1905</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="str">
         <f>REPLACE(A4,1,1,2)</f>
         <v>2101</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="str">
         <f>REPLACE(A5,1,1,2)</f>
         <v>2102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="str">
         <f>REPLACE(A6,1,1,2)</f>
         <v>2103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="str">
         <f t="shared" ref="A52:A93" si="0">REPLACE(A7,1,1,2)</f>
         <v>2104</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2105</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2201</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>69</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2203</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2204</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>72</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2205</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2302</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2303</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2304</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2305</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2401</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2403</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>81</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2404</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2405</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2501</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2502</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2503</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2504</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2505</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2601</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2602</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>90</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2603</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2604</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2605</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2701</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2702</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2703</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2704</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2705</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2801</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>99</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2802</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2803</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2804</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>102</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2805</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>103</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2901</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>104</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2902</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>105</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2903</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>106</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2904</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2905</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>108</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="str">
         <f>REPLACE(A4,1,1,3)</f>
         <v>3101</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>109</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="str">
         <f t="shared" ref="A95:A138" si="1">REPLACE(A5,1,1,3)</f>
         <v>3102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>110</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3104</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>112</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3105</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>113</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3201</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>114</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3202</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>115</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3203</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>116</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3204</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3205</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>118</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3301</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>119</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3302</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>120</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3303</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>121</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3304</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>122</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3305</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3401</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3402</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>125</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3403</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>126</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3404</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>127</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3405</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>128</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3501</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>129</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3502</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>130</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3503</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>131</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3504</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>132</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3505</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>133</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3601</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>134</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3602</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>135</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3603</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>136</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3604</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>137</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3605</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>138</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3701</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>139</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3702</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>140</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3703</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>141</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3704</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>142</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3705</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>143</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3801</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3802</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>145</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3803</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>146</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3804</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>147</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3805</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>148</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3901</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>149</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3902</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>150</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3903</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>151</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3904</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>152</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3905</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="str">
         <f>REPLACE(A4,1,1,4)</f>
         <v>4101</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>154</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="str">
         <f t="shared" ref="A140:A183" si="2">REPLACE(A5,1,1,4)</f>
         <v>4102</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>155</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4103</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>156</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4104</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>157</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4105</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>158</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4201</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4202</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>160</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4203</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>161</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4204</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>162</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4205</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>163</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4301</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
+        <v>164</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4302</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>165</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4303</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>166</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4304</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
+        <v>167</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4305</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>168</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4401</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>169</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4402</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>170</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4403</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>171</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4404</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>172</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4405</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
+        <v>173</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4501</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>174</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4502</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
+        <v>175</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4503</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>176</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4504</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>177</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4505</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>178</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4601</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>179</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4602</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
+        <v>180</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4603</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>181</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4604</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4605</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4701</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4702</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
+        <v>185</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4703</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4704</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4705</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>188</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4801</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4802</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>190</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4803</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>191</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4804</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>192</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4805</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>193</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4901</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
+        <v>194</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4902</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
+        <v>195</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4903</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>196</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4904</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
+        <v>197</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="str">
         <f t="shared" si="2"/>
         <v>4905</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3464,7 +4089,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/common/EnergyIntro.xlsx
+++ b/common/EnergyIntro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>星星序号</t>
   </si>
@@ -26,22 +26,52 @@
     <t>坐标</t>
   </si>
   <si>
-    <t>energy_id</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>x,y</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>array</t>
+    <r>
+      <t xml:space="preserve">energy_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">introduction </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x,y </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>array</t>
+    </r>
   </si>
   <si>
     <t>聪慧属性的1等星《聪慧101》</t>
@@ -621,10 +651,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,14 +671,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,46 +723,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,7 +739,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,23 +747,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,7 +762,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,11 +791,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -805,7 +843,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +885,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,31 +957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,67 +981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,48 +1005,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1008,19 +1046,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1028,21 +1053,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1072,21 +1082,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1101,11 +1096,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +1119,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1126,10 +1151,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,153 +1163,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1913,2168 +1932,2157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="63.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1101</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1105</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>1205</v>
+        <v>1301</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>1305</v>
+        <v>1401</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>1405</v>
+        <v>1501</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>1505</v>
+        <v>1601</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>1605</v>
+        <v>1701</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>1705</v>
+        <v>1801</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>1805</v>
+        <v>1901</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>59</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>1905</v>
+      <c r="A48" s="1" t="str">
+        <f>REPLACE(A3,1,1,2)</f>
+        <v>2101</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="str">
         <f>REPLACE(A4,1,1,2)</f>
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="str">
         <f>REPLACE(A5,1,1,2)</f>
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="str">
-        <f>REPLACE(A6,1,1,2)</f>
-        <v>2103</v>
+        <f t="shared" ref="A51:A92" si="0">REPLACE(A6,1,1,2)</f>
+        <v>2104</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="str">
-        <f t="shared" ref="A52:A93" si="0">REPLACE(A7,1,1,2)</f>
-        <v>2104</v>
+        <f t="shared" si="0"/>
+        <v>2105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2105</v>
+        <v>2201</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>22</v>
+        <v>68</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>70</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2205</v>
+        <v>2301</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>28</v>
+        <v>73</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2305</v>
+        <v>2401</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>20</v>
+        <v>77</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>80</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2405</v>
+        <v>2501</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2505</v>
+        <v>2601</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>28</v>
+        <v>87</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2603</v>
+        <v>2604</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>10</v>
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2605</v>
+        <v>2701</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>10</v>
+        <v>93</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2703</v>
+        <v>2704</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2705</v>
+        <v>2801</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>28</v>
+        <v>96</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>57</v>
+        <v>100</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2805</v>
+        <v>2901</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>20</v>
+        <v>101</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>30</v>
+        <v>104</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>2905</v>
+        <f>REPLACE(A3,1,1,3)</f>
+        <v>3101</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="str">
-        <f>REPLACE(A4,1,1,3)</f>
-        <v>3101</v>
+        <f t="shared" ref="A94:A137" si="1">REPLACE(A4,1,1,3)</f>
+        <v>3102</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="str">
-        <f t="shared" ref="A95:A138" si="1">REPLACE(A5,1,1,3)</f>
-        <v>3102</v>
+        <f t="shared" si="1"/>
+        <v>3103</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>109</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3105</v>
+        <v>3201</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>115</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3205</v>
+        <v>3301</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>116</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>117</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>28</v>
+        <v>118</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3305</v>
+        <v>3401</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>16</v>
+        <v>125</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3405</v>
+        <v>3501</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>126</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>28</v>
+        <v>127</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3505</v>
+        <v>3601</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>22</v>
+        <v>131</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3601</v>
+        <v>3602</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>28</v>
+        <v>132</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
+        <v>133</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>10</v>
+        <v>134</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>30</v>
+        <v>135</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3605</v>
+        <v>3701</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3701</v>
+        <v>3702</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>16</v>
+        <v>137</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3704</v>
+        <v>3705</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>20</v>
+        <v>140</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3705</v>
+        <v>3801</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>30</v>
+        <v>142</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3802</v>
+        <v>3803</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>22</v>
+        <v>143</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>10</v>
+        <v>144</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>57</v>
+        <v>145</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3805</v>
+        <v>3901</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>20</v>
+        <v>146</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3901</v>
+        <v>3902</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>20</v>
+        <v>148</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>30</v>
+        <v>149</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>16</v>
+        <v>150</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>3905</v>
+        <f>REPLACE(A3,1,1,4)</f>
+        <v>4101</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1" t="str">
-        <f>REPLACE(A4,1,1,4)</f>
-        <v>4101</v>
+        <f t="shared" ref="A139:A182" si="2">REPLACE(A4,1,1,4)</f>
+        <v>4102</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1" t="str">
-        <f t="shared" ref="A140:A183" si="2">REPLACE(A5,1,1,4)</f>
-        <v>4102</v>
+        <f t="shared" si="2"/>
+        <v>4103</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>154</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>16</v>
+        <v>155</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4105</v>
+        <v>4201</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>18</v>
+        <v>156</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>20</v>
+        <v>157</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>22</v>
+        <v>158</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>16</v>
+        <v>160</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4205</v>
+        <v>4301</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>20</v>
+        <v>162</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>30</v>
+        <v>164</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>16</v>
+        <v>165</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4305</v>
+        <v>4401</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>18</v>
+        <v>166</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>20</v>
+        <v>167</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4402</v>
+        <v>4403</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>12</v>
+        <v>168</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>30</v>
+        <v>169</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4405</v>
+        <v>4501</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>18</v>
+        <v>171</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>28</v>
+        <v>172</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4502</v>
+        <v>4503</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>10</v>
+        <v>173</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4505</v>
+        <v>4601</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>22</v>
+        <v>176</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>28</v>
+        <v>177</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>30</v>
+        <v>180</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4605</v>
+        <v>4701</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>20</v>
+        <v>181</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>16</v>
+        <v>182</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>10</v>
+        <v>183</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>184</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>185</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4705</v>
+        <v>4801</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>28</v>
+        <v>186</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>30</v>
+        <v>187</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>22</v>
+        <v>188</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>57</v>
+        <v>190</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4805</v>
+        <v>4901</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>20</v>
+        <v>191</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4901</v>
+        <v>4902</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>20</v>
+        <v>193</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>30</v>
+        <v>194</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>4905</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C183" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/common/EnergyIntro.xlsx
+++ b/common/EnergyIntro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,14 +76,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">x,y </t>
+      <t xml:space="preserve">pos </t>
     </r>
     <r>
       <rPr>
@@ -99,14 +92,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">star_lv </t>
+      <t xml:space="preserve">grade </t>
     </r>
     <r>
       <rPr>
@@ -696,8 +682,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -718,14 +704,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,7 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,14 +756,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,8 +777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,7 +794,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,23 +825,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,29 +844,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,19 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,13 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,19 +912,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +948,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,85 +1032,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1064,7 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,6 +1079,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1117,39 +1127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1161,6 +1138,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,17 +1176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1198,149 +1184,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,9 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1987,7 +1970,7 @@
   <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2036,7 +2019,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="1" t="str">
         <f>MID(A3,2,1)</f>
         <v>1</v>
       </c>
@@ -2051,7 +2034,7 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="1" t="str">
         <f>MID(A4,2,1)</f>
         <v>1</v>
       </c>
@@ -2066,7 +2049,7 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="1" t="str">
         <f>MID(A5,2,1)</f>
         <v>1</v>
       </c>
@@ -2081,7 +2064,7 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="1" t="str">
         <f>MID(A6,2,1)</f>
         <v>1</v>
       </c>
@@ -2096,7 +2079,7 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D7" s="1" t="str">
         <f>MID(A7,2,1)</f>
         <v>1</v>
       </c>
@@ -2111,7 +2094,7 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D14" si="0">MID(A8,2,1)</f>
         <v>2</v>
       </c>
@@ -2126,7 +2109,7 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2141,7 +2124,7 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2156,7 +2139,7 @@
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2171,7 +2154,7 @@
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2186,7 +2169,7 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2201,7 +2184,7 @@
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2216,7 +2199,7 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="1" t="str">
         <f t="shared" ref="D15:D39" si="1">MID(A15,2,1)</f>
         <v>3</v>
       </c>
@@ -2231,7 +2214,7 @@
       <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2246,7 +2229,7 @@
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2261,7 +2244,7 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2276,7 +2259,7 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2291,7 +2274,7 @@
       <c r="C20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2306,7 +2289,7 @@
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2321,7 +2304,7 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2336,7 +2319,7 @@
       <c r="C23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D23" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2351,7 +2334,7 @@
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2366,7 +2349,7 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="str">
+      <c r="D25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2381,7 +2364,7 @@
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="4" t="str">
+      <c r="D26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2396,7 +2379,7 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="str">
+      <c r="D27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -2411,7 +2394,7 @@
       <c r="C28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="str">
+      <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2426,7 +2409,7 @@
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="4" t="str">
+      <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2441,7 +2424,7 @@
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="4" t="str">
+      <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2456,7 +2439,7 @@
       <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="4" t="str">
+      <c r="D31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2471,7 +2454,7 @@
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="4" t="str">
+      <c r="D32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -2486,7 +2469,7 @@
       <c r="C33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="4" t="str">
+      <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2501,7 +2484,7 @@
       <c r="C34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="4" t="str">
+      <c r="D34" s="1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2516,7 +2499,7 @@
       <c r="C35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="4" t="str">
+      <c r="D35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2531,7 +2514,7 @@
       <c r="C36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="4" t="str">
+      <c r="D36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2546,7 +2529,7 @@
       <c r="C37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4" t="str">
+      <c r="D37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -2561,7 +2544,7 @@
       <c r="C38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="4" t="str">
+      <c r="D38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2576,7 +2559,7 @@
       <c r="C39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="4" t="str">
+      <c r="D39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -2591,7 +2574,7 @@
       <c r="C40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="4" t="str">
+      <c r="D40" s="1" t="str">
         <f t="shared" ref="D40:D46" si="2">MID(A40,2,1)</f>
         <v>8</v>
       </c>
@@ -2606,7 +2589,7 @@
       <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="4" t="str">
+      <c r="D41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -2621,7 +2604,7 @@
       <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="4" t="str">
+      <c r="D42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -2636,7 +2619,7 @@
       <c r="C43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="4" t="str">
+      <c r="D43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2651,7 +2634,7 @@
       <c r="C44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="4" t="str">
+      <c r="D44" s="1" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2666,7 +2649,7 @@
       <c r="C45" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="4" t="str">
+      <c r="D45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2681,7 +2664,7 @@
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4" t="str">
+      <c r="D46" s="1" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2696,7 +2679,7 @@
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="4" t="str">
+      <c r="D47" s="1" t="str">
         <f t="shared" ref="D47:D55" si="3">MID(A47,2,1)</f>
         <v>9</v>
       </c>
@@ -2712,7 +2695,7 @@
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4" t="str">
+      <c r="D48" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2728,7 +2711,7 @@
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="4" t="str">
+      <c r="D49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2744,7 +2727,7 @@
       <c r="C50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="4" t="str">
+      <c r="D50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2760,7 +2743,7 @@
       <c r="C51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="4" t="str">
+      <c r="D51" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2776,7 +2759,7 @@
       <c r="C52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="4" t="str">
+      <c r="D52" s="1" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2792,7 +2775,7 @@
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="4" t="str">
+      <c r="D53" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2808,7 +2791,7 @@
       <c r="C54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="4" t="str">
+      <c r="D54" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2824,7 +2807,7 @@
       <c r="C55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D55" s="4" t="str">
+      <c r="D55" s="1" t="str">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -2840,7 +2823,7 @@
       <c r="C56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="4" t="str">
+      <c r="D56" s="1" t="str">
         <f t="shared" ref="D56:D87" si="5">MID(A56,2,1)</f>
         <v>2</v>
       </c>
@@ -2856,7 +2839,7 @@
       <c r="C57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="4" t="str">
+      <c r="D57" s="1" t="str">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
@@ -2872,7 +2855,7 @@
       <c r="C58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="4" t="str">
+      <c r="D58" s="1" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2888,7 +2871,7 @@
       <c r="C59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D59" s="4" t="str">
+      <c r="D59" s="1" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2904,7 +2887,7 @@
       <c r="C60" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="4" t="str">
+      <c r="D60" s="1" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2920,7 +2903,7 @@
       <c r="C61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="4" t="str">
+      <c r="D61" s="1" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2936,7 +2919,7 @@
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="4" t="str">
+      <c r="D62" s="1" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -2952,7 +2935,7 @@
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="4" t="str">
+      <c r="D63" s="1" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -2968,7 +2951,7 @@
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="str">
+      <c r="D64" s="1" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -2984,7 +2967,7 @@
       <c r="C65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="4" t="str">
+      <c r="D65" s="1" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3000,7 +2983,7 @@
       <c r="C66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="4" t="str">
+      <c r="D66" s="1" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3016,7 +2999,7 @@
       <c r="C67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="4" t="str">
+      <c r="D67" s="1" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -3032,7 +3015,7 @@
       <c r="C68" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="4" t="str">
+      <c r="D68" s="1" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3048,7 +3031,7 @@
       <c r="C69" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="4" t="str">
+      <c r="D69" s="1" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3064,7 +3047,7 @@
       <c r="C70" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="4" t="str">
+      <c r="D70" s="1" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3080,7 +3063,7 @@
       <c r="C71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="4" t="str">
+      <c r="D71" s="1" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3096,7 +3079,7 @@
       <c r="C72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="4" t="str">
+      <c r="D72" s="1" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -3112,7 +3095,7 @@
       <c r="C73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D73" s="4" t="str">
+      <c r="D73" s="1" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3128,7 +3111,7 @@
       <c r="C74" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="4" t="str">
+      <c r="D74" s="1" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3144,7 +3127,7 @@
       <c r="C75" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="str">
+      <c r="D75" s="1" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3160,7 +3143,7 @@
       <c r="C76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="4" t="str">
+      <c r="D76" s="1" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3176,7 +3159,7 @@
       <c r="C77" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="4" t="str">
+      <c r="D77" s="1" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -3192,7 +3175,7 @@
       <c r="C78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="4" t="str">
+      <c r="D78" s="1" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3208,7 +3191,7 @@
       <c r="C79" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="4" t="str">
+      <c r="D79" s="1" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3224,7 +3207,7 @@
       <c r="C80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4" t="str">
+      <c r="D80" s="1" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3240,7 +3223,7 @@
       <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="4" t="str">
+      <c r="D81" s="1" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3256,7 +3239,7 @@
       <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="4" t="str">
+      <c r="D82" s="1" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -3272,7 +3255,7 @@
       <c r="C83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="4" t="str">
+      <c r="D83" s="1" t="str">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3288,7 +3271,7 @@
       <c r="C84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="4" t="str">
+      <c r="D84" s="1" t="str">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3304,7 +3287,7 @@
       <c r="C85" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="4" t="str">
+      <c r="D85" s="1" t="str">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3320,7 +3303,7 @@
       <c r="C86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="4" t="str">
+      <c r="D86" s="1" t="str">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3336,7 +3319,7 @@
       <c r="C87" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="4" t="str">
+      <c r="D87" s="1" t="str">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -3352,7 +3335,7 @@
       <c r="C88" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="4" t="str">
+      <c r="D88" s="1" t="str">
         <f t="shared" ref="D88:D119" si="6">MID(A88,2,1)</f>
         <v>9</v>
       </c>
@@ -3368,7 +3351,7 @@
       <c r="C89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="4" t="str">
+      <c r="D89" s="1" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3384,7 +3367,7 @@
       <c r="C90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="4" t="str">
+      <c r="D90" s="1" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3400,7 +3383,7 @@
       <c r="C91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="4" t="str">
+      <c r="D91" s="1" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3416,7 +3399,7 @@
       <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="4" t="str">
+      <c r="D92" s="1" t="str">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
@@ -3432,7 +3415,7 @@
       <c r="C93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="4" t="str">
+      <c r="D93" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -3448,7 +3431,7 @@
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="4" t="str">
+      <c r="D94" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -3464,7 +3447,7 @@
       <c r="C95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="4" t="str">
+      <c r="D95" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -3480,7 +3463,7 @@
       <c r="C96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="4" t="str">
+      <c r="D96" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -3496,7 +3479,7 @@
       <c r="C97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D97" s="4" t="str">
+      <c r="D97" s="1" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -3512,7 +3495,7 @@
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="4" t="str">
+      <c r="D98" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3528,7 +3511,7 @@
       <c r="C99" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="4" t="str">
+      <c r="D99" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3544,7 +3527,7 @@
       <c r="C100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="4" t="str">
+      <c r="D100" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3560,7 +3543,7 @@
       <c r="C101" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="4" t="str">
+      <c r="D101" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3576,7 +3559,7 @@
       <c r="C102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D102" s="4" t="str">
+      <c r="D102" s="1" t="str">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -3592,7 +3575,7 @@
       <c r="C103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="4" t="str">
+      <c r="D103" s="1" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3608,7 +3591,7 @@
       <c r="C104" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D104" s="4" t="str">
+      <c r="D104" s="1" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3624,7 +3607,7 @@
       <c r="C105" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D105" s="4" t="str">
+      <c r="D105" s="1" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3640,7 +3623,7 @@
       <c r="C106" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D106" s="4" t="str">
+      <c r="D106" s="1" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3656,7 +3639,7 @@
       <c r="C107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D107" s="4" t="str">
+      <c r="D107" s="1" t="str">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3672,7 +3655,7 @@
       <c r="C108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="4" t="str">
+      <c r="D108" s="1" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3688,7 +3671,7 @@
       <c r="C109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="4" t="str">
+      <c r="D109" s="1" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3704,7 +3687,7 @@
       <c r="C110" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="4" t="str">
+      <c r="D110" s="1" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3720,7 +3703,7 @@
       <c r="C111" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="4" t="str">
+      <c r="D111" s="1" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3736,7 +3719,7 @@
       <c r="C112" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="4" t="str">
+      <c r="D112" s="1" t="str">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3752,7 +3735,7 @@
       <c r="C113" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D113" s="4" t="str">
+      <c r="D113" s="1" t="str">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3768,7 +3751,7 @@
       <c r="C114" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="4" t="str">
+      <c r="D114" s="1" t="str">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3784,7 +3767,7 @@
       <c r="C115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="4" t="str">
+      <c r="D115" s="1" t="str">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3800,7 +3783,7 @@
       <c r="C116" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="4" t="str">
+      <c r="D116" s="1" t="str">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3816,7 +3799,7 @@
       <c r="C117" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D117" s="4" t="str">
+      <c r="D117" s="1" t="str">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3832,7 +3815,7 @@
       <c r="C118" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D118" s="4" t="str">
+      <c r="D118" s="1" t="str">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3848,7 +3831,7 @@
       <c r="C119" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="4" t="str">
+      <c r="D119" s="1" t="str">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3864,7 +3847,7 @@
       <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="4" t="str">
+      <c r="D120" s="1" t="str">
         <f t="shared" ref="D120:D151" si="8">MID(A120,2,1)</f>
         <v>6</v>
       </c>
@@ -3880,7 +3863,7 @@
       <c r="C121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="4" t="str">
+      <c r="D121" s="1" t="str">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -3896,7 +3879,7 @@
       <c r="C122" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D122" s="4" t="str">
+      <c r="D122" s="1" t="str">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
@@ -3912,7 +3895,7 @@
       <c r="C123" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D123" s="4" t="str">
+      <c r="D123" s="1" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3928,7 +3911,7 @@
       <c r="C124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="4" t="str">
+      <c r="D124" s="1" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3944,7 +3927,7 @@
       <c r="C125" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="4" t="str">
+      <c r="D125" s="1" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3960,7 +3943,7 @@
       <c r="C126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="4" t="str">
+      <c r="D126" s="1" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3976,7 +3959,7 @@
       <c r="C127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D127" s="4" t="str">
+      <c r="D127" s="1" t="str">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
@@ -3992,7 +3975,7 @@
       <c r="C128" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D128" s="4" t="str">
+      <c r="D128" s="1" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4008,7 +3991,7 @@
       <c r="C129" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="4" t="str">
+      <c r="D129" s="1" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4024,7 +4007,7 @@
       <c r="C130" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="4" t="str">
+      <c r="D130" s="1" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4040,7 +4023,7 @@
       <c r="C131" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D131" s="4" t="str">
+      <c r="D131" s="1" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4056,7 +4039,7 @@
       <c r="C132" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D132" s="4" t="str">
+      <c r="D132" s="1" t="str">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
@@ -4072,7 +4055,7 @@
       <c r="C133" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="4" t="str">
+      <c r="D133" s="1" t="str">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -4088,7 +4071,7 @@
       <c r="C134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D134" s="4" t="str">
+      <c r="D134" s="1" t="str">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -4104,7 +4087,7 @@
       <c r="C135" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D135" s="4" t="str">
+      <c r="D135" s="1" t="str">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -4120,7 +4103,7 @@
       <c r="C136" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="4" t="str">
+      <c r="D136" s="1" t="str">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -4136,7 +4119,7 @@
       <c r="C137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="4" t="str">
+      <c r="D137" s="1" t="str">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -4152,7 +4135,7 @@
       <c r="C138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D138" s="4" t="str">
+      <c r="D138" s="1" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4168,7 +4151,7 @@
       <c r="C139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="4" t="str">
+      <c r="D139" s="1" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4184,7 +4167,7 @@
       <c r="C140" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D140" s="4" t="str">
+      <c r="D140" s="1" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4200,7 +4183,7 @@
       <c r="C141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D141" s="4" t="str">
+      <c r="D141" s="1" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4216,7 +4199,7 @@
       <c r="C142" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D142" s="4" t="str">
+      <c r="D142" s="1" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
@@ -4232,7 +4215,7 @@
       <c r="C143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="4" t="str">
+      <c r="D143" s="1" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4248,7 +4231,7 @@
       <c r="C144" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D144" s="4" t="str">
+      <c r="D144" s="1" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4264,7 +4247,7 @@
       <c r="C145" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="4" t="str">
+      <c r="D145" s="1" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4280,7 +4263,7 @@
       <c r="C146" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D146" s="4" t="str">
+      <c r="D146" s="1" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4296,7 +4279,7 @@
       <c r="C147" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D147" s="4" t="str">
+      <c r="D147" s="1" t="str">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
@@ -4312,7 +4295,7 @@
       <c r="C148" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D148" s="4" t="str">
+      <c r="D148" s="1" t="str">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -4328,7 +4311,7 @@
       <c r="C149" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D149" s="4" t="str">
+      <c r="D149" s="1" t="str">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -4344,7 +4327,7 @@
       <c r="C150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="4" t="str">
+      <c r="D150" s="1" t="str">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -4360,7 +4343,7 @@
       <c r="C151" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="4" t="str">
+      <c r="D151" s="1" t="str">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
@@ -4376,7 +4359,7 @@
       <c r="C152" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D152" s="4" t="str">
+      <c r="D152" s="1" t="str">
         <f t="shared" ref="D152:D182" si="10">MID(A152,2,1)</f>
         <v>3</v>
       </c>
@@ -4392,7 +4375,7 @@
       <c r="C153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="4" t="str">
+      <c r="D153" s="1" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4408,7 +4391,7 @@
       <c r="C154" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D154" s="4" t="str">
+      <c r="D154" s="1" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4424,7 +4407,7 @@
       <c r="C155" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D155" s="4" t="str">
+      <c r="D155" s="1" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4440,7 +4423,7 @@
       <c r="C156" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="4" t="str">
+      <c r="D156" s="1" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4456,7 +4439,7 @@
       <c r="C157" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D157" s="4" t="str">
+      <c r="D157" s="1" t="str">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4472,7 +4455,7 @@
       <c r="C158" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D158" s="4" t="str">
+      <c r="D158" s="1" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4488,7 +4471,7 @@
       <c r="C159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="4" t="str">
+      <c r="D159" s="1" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4504,7 +4487,7 @@
       <c r="C160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D160" s="4" t="str">
+      <c r="D160" s="1" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4520,7 +4503,7 @@
       <c r="C161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="4" t="str">
+      <c r="D161" s="1" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4536,7 +4519,7 @@
       <c r="C162" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="4" t="str">
+      <c r="D162" s="1" t="str">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4552,7 +4535,7 @@
       <c r="C163" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D163" s="4" t="str">
+      <c r="D163" s="1" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -4568,7 +4551,7 @@
       <c r="C164" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D164" s="4" t="str">
+      <c r="D164" s="1" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -4584,7 +4567,7 @@
       <c r="C165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="4" t="str">
+      <c r="D165" s="1" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -4600,7 +4583,7 @@
       <c r="C166" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D166" s="4" t="str">
+      <c r="D166" s="1" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -4616,7 +4599,7 @@
       <c r="C167" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D167" s="4" t="str">
+      <c r="D167" s="1" t="str">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
@@ -4632,7 +4615,7 @@
       <c r="C168" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D168" s="4" t="str">
+      <c r="D168" s="1" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4648,7 +4631,7 @@
       <c r="C169" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D169" s="4" t="str">
+      <c r="D169" s="1" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4664,7 +4647,7 @@
       <c r="C170" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="4" t="str">
+      <c r="D170" s="1" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4680,7 +4663,7 @@
       <c r="C171" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D171" s="4" t="str">
+      <c r="D171" s="1" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4696,7 +4679,7 @@
       <c r="C172" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D172" s="4" t="str">
+      <c r="D172" s="1" t="str">
         <f t="shared" si="10"/>
         <v>7</v>
       </c>
@@ -4712,7 +4695,7 @@
       <c r="C173" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="4" t="str">
+      <c r="D173" s="1" t="str">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -4728,7 +4711,7 @@
       <c r="C174" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D174" s="4" t="str">
+      <c r="D174" s="1" t="str">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -4744,7 +4727,7 @@
       <c r="C175" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D175" s="4" t="str">
+      <c r="D175" s="1" t="str">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -4760,7 +4743,7 @@
       <c r="C176" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D176" s="4" t="str">
+      <c r="D176" s="1" t="str">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -4776,7 +4759,7 @@
       <c r="C177" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D177" s="4" t="str">
+      <c r="D177" s="1" t="str">
         <f t="shared" si="10"/>
         <v>8</v>
       </c>
@@ -4792,7 +4775,7 @@
       <c r="C178" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="4" t="str">
+      <c r="D178" s="1" t="str">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -4808,7 +4791,7 @@
       <c r="C179" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D179" s="4" t="str">
+      <c r="D179" s="1" t="str">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -4824,7 +4807,7 @@
       <c r="C180" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D180" s="4" t="str">
+      <c r="D180" s="1" t="str">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -4840,7 +4823,7 @@
       <c r="C181" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D181" s="4" t="str">
+      <c r="D181" s="1" t="str">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>
@@ -4856,7 +4839,7 @@
       <c r="C182" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="4" t="str">
+      <c r="D182" s="1" t="str">
         <f t="shared" si="10"/>
         <v>9</v>
       </c>

--- a/common/EnergyIntro.xlsx
+++ b/common/EnergyIntro.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="备注" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198">
   <si>
     <t>星星序号</t>
   </si>
@@ -30,14 +30,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">energy_id </t>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -76,6 +69,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">pos </t>
     </r>
     <r>
@@ -92,6 +92,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">grade </t>
     </r>
     <r>
@@ -682,8 +689,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -703,33 +710,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,10 +747,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,7 +780,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,15 +788,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,54 +848,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,36 +883,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -918,7 +895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +907,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +955,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,43 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,13 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,19 +1051,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,7 +1090,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,17 +1134,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,36 +1155,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,10 +1191,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1196,133 +1203,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1965,12 +1972,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4851,7 +4858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
